--- a/proyek.xlsx
+++ b/proyek.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sekarpramesi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Academics\STTS\Semester 6\PCS\Proyek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1391F284-1F7F-4350-BD5F-2B895CF09EC3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{054F1BBB-CC80-4909-99A4-77BA21271968}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" firstSheet="3" activeTab="3" xr2:uid="{3BEEEE0C-23BB-4980-BF51-D8E562B5C5F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="3705" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BARANG" sheetId="1" r:id="rId1"/>
-    <sheet name="KATEGORI" sheetId="3" r:id="rId2"/>
-    <sheet name="MERK" sheetId="2" r:id="rId3"/>
+    <sheet name="KATEGORI" sheetId="2" r:id="rId2"/>
+    <sheet name="MERK" sheetId="3" r:id="rId3"/>
     <sheet name="PEGAWAI" sheetId="4" r:id="rId4"/>
     <sheet name="ABSENSI" sheetId="5" r:id="rId5"/>
     <sheet name="SUPPLIER" sheetId="6" r:id="rId6"/>
@@ -26,17 +26,17 @@
     <sheet name="MEMBER" sheetId="11" r:id="rId11"/>
     <sheet name="POINT_HISTORY" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="291">
   <si>
     <t>ID_BARANG</t>
   </si>
@@ -50,6 +50,12 @@
     <t>NAMA_BARANG</t>
   </si>
   <si>
+    <t>HARGA_ASLI_BARANG</t>
+  </si>
+  <si>
+    <t>HARGA_JUAL_BARANG</t>
+  </si>
+  <si>
     <t>STOK_BARANG</t>
   </si>
   <si>
@@ -59,12 +65,336 @@
     <t>GAMBAR_BARANG</t>
   </si>
   <si>
+    <t>B0001</t>
+  </si>
+  <si>
+    <t>K0001</t>
+  </si>
+  <si>
+    <t>M0001</t>
+  </si>
+  <si>
+    <t>B0002</t>
+  </si>
+  <si>
+    <t>K0002</t>
+  </si>
+  <si>
+    <t>M0002</t>
+  </si>
+  <si>
+    <t>B0003</t>
+  </si>
+  <si>
+    <t>M0003</t>
+  </si>
+  <si>
+    <t>B0004</t>
+  </si>
+  <si>
+    <t>M0004</t>
+  </si>
+  <si>
+    <t>Dell 14041</t>
+  </si>
+  <si>
+    <t>B0005</t>
+  </si>
+  <si>
+    <t>K0005</t>
+  </si>
+  <si>
+    <t>M0005</t>
+  </si>
+  <si>
+    <t>B0006</t>
+  </si>
+  <si>
+    <t>K0003</t>
+  </si>
+  <si>
+    <t>M0006</t>
+  </si>
+  <si>
+    <t>OPPO F7</t>
+  </si>
+  <si>
+    <t>B0007</t>
+  </si>
+  <si>
+    <t>M0007</t>
+  </si>
+  <si>
+    <t>Nokia 105 (2017)</t>
+  </si>
+  <si>
+    <t>B0008</t>
+  </si>
+  <si>
+    <t>M0008</t>
+  </si>
+  <si>
+    <t>APPLE IPHONE 6</t>
+  </si>
+  <si>
+    <t>B0009</t>
+  </si>
+  <si>
+    <t>M0009</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy J2 Prime</t>
+  </si>
+  <si>
+    <t>B0010</t>
+  </si>
+  <si>
+    <t>M0010</t>
+  </si>
+  <si>
+    <t>Sharp R1</t>
+  </si>
+  <si>
+    <t>B0011</t>
+  </si>
+  <si>
+    <t>M0011</t>
+  </si>
+  <si>
+    <t>Acer Swift 3</t>
+  </si>
+  <si>
+    <t>B0012</t>
+  </si>
+  <si>
+    <t>M0012</t>
+  </si>
+  <si>
+    <t>Asus x550vx</t>
+  </si>
+  <si>
+    <t>B0013</t>
+  </si>
+  <si>
+    <t>ASUS ZenBook Flip</t>
+  </si>
+  <si>
+    <t>B0014</t>
+  </si>
+  <si>
+    <t>M0013</t>
+  </si>
+  <si>
+    <t>HP Laptop 14</t>
+  </si>
+  <si>
+    <t>B0015</t>
+  </si>
+  <si>
+    <t>M0014</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad L420</t>
+  </si>
+  <si>
+    <t>B0016</t>
+  </si>
+  <si>
+    <t>M0015</t>
+  </si>
+  <si>
+    <t>Blackvue Cloud Dash Cam</t>
+  </si>
+  <si>
+    <t>B0017</t>
+  </si>
+  <si>
+    <t>M0016</t>
+  </si>
+  <si>
+    <t>Canon EOS 6D Mark II</t>
+  </si>
+  <si>
+    <t>B0018</t>
+  </si>
+  <si>
+    <t>M0017</t>
+  </si>
+  <si>
+    <t>Fuji Digital Camera GFX 50S BO</t>
+  </si>
+  <si>
+    <t>B0019</t>
+  </si>
+  <si>
+    <t>M0018</t>
+  </si>
+  <si>
+    <t>GoPro HERO6</t>
+  </si>
+  <si>
+    <t>B0020</t>
+  </si>
+  <si>
+    <t>M0019</t>
+  </si>
+  <si>
+    <t>Sony Alpha A5000</t>
+  </si>
+  <si>
+    <t>B0021</t>
+  </si>
+  <si>
+    <t>K0004</t>
+  </si>
+  <si>
+    <t>Apple iPad Air 3</t>
+  </si>
+  <si>
+    <t>B0022</t>
+  </si>
+  <si>
+    <t>iPad mini 4</t>
+  </si>
+  <si>
+    <t>B0023</t>
+  </si>
+  <si>
+    <t>M0020</t>
+  </si>
+  <si>
+    <t>Microsoft New Surface Pro 5</t>
+  </si>
+  <si>
+    <t>B0024</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A</t>
+  </si>
+  <si>
+    <t>B0025</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S2</t>
+  </si>
+  <si>
+    <t>B0026</t>
+  </si>
+  <si>
+    <t>M0021</t>
+  </si>
+  <si>
+    <t>Hippo Bronz X</t>
+  </si>
+  <si>
+    <t>B0027</t>
+  </si>
+  <si>
+    <t>HIPPO ILO F2</t>
+  </si>
+  <si>
+    <t>B0028</t>
+  </si>
+  <si>
+    <t>Hippo iLo P1</t>
+  </si>
+  <si>
+    <t>B0029</t>
+  </si>
+  <si>
+    <t>M0022</t>
+  </si>
+  <si>
+    <t>Robot RT7200</t>
+  </si>
+  <si>
+    <t>B0030</t>
+  </si>
+  <si>
+    <t>Xiaomi Powerbank 2</t>
+  </si>
+  <si>
     <t>NAMA_KATEGORI</t>
   </si>
   <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>Handphone</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Powerbank</t>
+  </si>
+  <si>
     <t>NAMA_MERK</t>
   </si>
   <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>Nikon</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>XiaoMi</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Blackvue</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>GoPro</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Hippo</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
     <t>ID_PEGAWAI</t>
   </si>
   <si>
@@ -74,18 +404,84 @@
     <t>TGL_LAHIR_PEGAWAI</t>
   </si>
   <si>
+    <t>JK_PEGAWAI</t>
+  </si>
+  <si>
     <t>ALAMAT_PEGAWAI</t>
   </si>
   <si>
     <t>TELEPON_PEGAWAI</t>
   </si>
   <si>
+    <t>FOTO_PEGAWAI</t>
+  </si>
+  <si>
     <t>ROLE_PEGAWAI</t>
   </si>
   <si>
     <t>PASSWORD_PEGAWAI</t>
   </si>
   <si>
+    <t>P0001</t>
+  </si>
+  <si>
+    <t>Susi Susanti</t>
+  </si>
+  <si>
+    <t>Jl.Rajawali 800</t>
+  </si>
+  <si>
+    <t>pss88001</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>Tom Mitchell</t>
+  </si>
+  <si>
+    <t>Jl.Singaperbangsa 80</t>
+  </si>
+  <si>
+    <t>ptm96002</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>Martin Suryajaya</t>
+  </si>
+  <si>
+    <t>Jl.MT Haryono 700</t>
+  </si>
+  <si>
+    <t>pms80003</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>Rose Maxwell</t>
+  </si>
+  <si>
+    <t>Jl.Sukolilo 88</t>
+  </si>
+  <si>
+    <t>prm90004</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>Pevita Pearce</t>
+  </si>
+  <si>
+    <t>Jl.Pasteur 55</t>
+  </si>
+  <si>
+    <t>ppp87005</t>
+  </si>
+  <si>
     <t>ID_ABSENSI</t>
   </si>
   <si>
@@ -95,6 +491,111 @@
     <t>WAKTU_PULANG</t>
   </si>
   <si>
+    <t>A13032018001</t>
+  </si>
+  <si>
+    <t>13/3/2018  07:30:44</t>
+  </si>
+  <si>
+    <t>13/3/2018  16:30:44</t>
+  </si>
+  <si>
+    <t>A13032018002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/3/2018  07:35:44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/3/2018  16:35:44 </t>
+  </si>
+  <si>
+    <t>A14032018001</t>
+  </si>
+  <si>
+    <t>14/3/2018  07:30:50</t>
+  </si>
+  <si>
+    <t>14/3/2018  17:00:50</t>
+  </si>
+  <si>
+    <t>A14032018002</t>
+  </si>
+  <si>
+    <t>14/3/2018  07:30:55</t>
+  </si>
+  <si>
+    <t>14/3/2018  17:30:55</t>
+  </si>
+  <si>
+    <t>A15032018001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/3/2018  07:31:44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/3/2018  16:55:44 </t>
+  </si>
+  <si>
+    <t>A15032018002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/3/2018  07:33:44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/3/2018  16:35:44 </t>
+  </si>
+  <si>
+    <t>A20032018001</t>
+  </si>
+  <si>
+    <t>20/3/2018  07:30:44</t>
+  </si>
+  <si>
+    <t>20/3/2018  16:30:44</t>
+  </si>
+  <si>
+    <t>A20032018002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/3/2018  07:35:44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/3/2018  16:35:44 </t>
+  </si>
+  <si>
+    <t>A20032018003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/3/2018  07:37:44 </t>
+  </si>
+  <si>
+    <t>A21032018001</t>
+  </si>
+  <si>
+    <t>21/3/2018  07:30:44</t>
+  </si>
+  <si>
+    <t>21/3/2018  16:30:44</t>
+  </si>
+  <si>
+    <t>A21032018002</t>
+  </si>
+  <si>
+    <t>21/3/2018  07:30:45</t>
+  </si>
+  <si>
+    <t>21/3/2018  16:30:45</t>
+  </si>
+  <si>
+    <t>A21032018003</t>
+  </si>
+  <si>
+    <t>21/3/2018  07:30:46</t>
+  </si>
+  <si>
+    <t>21/3/2018  16:30:46</t>
+  </si>
+  <si>
     <t>ID_SUPPLIER</t>
   </si>
   <si>
@@ -107,6 +608,51 @@
     <t>TELEPON_SUPPLIER</t>
   </si>
   <si>
+    <t>S0001</t>
+  </si>
+  <si>
+    <t>PT.Makmur Jaya</t>
+  </si>
+  <si>
+    <t>Jl.Ngagel Jaya 786</t>
+  </si>
+  <si>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>PT.Computindo Golden</t>
+  </si>
+  <si>
+    <t>Jl.Rajawali 100</t>
+  </si>
+  <si>
+    <t>S0003</t>
+  </si>
+  <si>
+    <t>PT.Sentosa Abadi</t>
+  </si>
+  <si>
+    <t>Jl.Kalidami 20</t>
+  </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t>PT.Elektronika Jaya</t>
+  </si>
+  <si>
+    <t>Jl.Basuki Rahmat 35</t>
+  </si>
+  <si>
+    <t>S0005</t>
+  </si>
+  <si>
+    <t>PT.Sumber Abadi</t>
+  </si>
+  <si>
+    <t>Jl.Pandegiling 40</t>
+  </si>
+  <si>
     <t>ID_HJUAL</t>
   </si>
   <si>
@@ -116,21 +662,81 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
+    <t>HJ20032018001</t>
+  </si>
+  <si>
+    <t>HJ20032018002</t>
+  </si>
+  <si>
+    <t>HJ21032018001</t>
+  </si>
+  <si>
+    <t>HJ21032018002</t>
+  </si>
+  <si>
+    <t>HJ21032018003</t>
+  </si>
+  <si>
     <t>TANGGAL_HJUAL</t>
   </si>
   <si>
     <t>TOTAL_HJUAL</t>
   </si>
   <si>
+    <t>20/3/2018  10:30:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/3/2018  10:35:44 </t>
+  </si>
+  <si>
+    <t>21/3/2018  11:40:50</t>
+  </si>
+  <si>
+    <t>21/3/2018  13:30:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/3/2018  14:30:44 </t>
+  </si>
+  <si>
     <t>ID_HBELI</t>
   </si>
   <si>
+    <t>HB13032018001</t>
+  </si>
+  <si>
+    <t>HB13032018002</t>
+  </si>
+  <si>
+    <t>HB14032018001</t>
+  </si>
+  <si>
+    <t>HB14032018002</t>
+  </si>
+  <si>
+    <t>HB15032018001</t>
+  </si>
+  <si>
     <t>TANGGAL_HBELI</t>
   </si>
   <si>
     <t>TOTAL_HBELI</t>
   </si>
   <si>
+    <t>13/3/2018  10:30:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/3/2018  10:35:44 </t>
+  </si>
+  <si>
+    <t>14/3/2018  10:30:50</t>
+  </si>
+  <si>
+    <t>14/3/2018  13:30:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/3/2018  14:30:44 </t>
+  </si>
+  <si>
     <t>ID_MEMBER</t>
   </si>
   <si>
@@ -140,436 +746,169 @@
     <t>TGL_LAHIR_MEMBER</t>
   </si>
   <si>
+    <t>JK_MEMBER</t>
+  </si>
+  <si>
     <t>ALAMAT_MEMBER</t>
   </si>
   <si>
+    <t>FOTO_MEMBER</t>
+  </si>
+  <si>
     <t>PASSWORD_MEMBER</t>
   </si>
   <si>
+    <t>Roy Kiyoshi</t>
+  </si>
+  <si>
+    <t>Jl.Senayan Timur 90</t>
+  </si>
+  <si>
+    <t>mrk001</t>
+  </si>
+  <si>
+    <t>Bob Martin</t>
+  </si>
+  <si>
+    <t>Jl.Meruya Barat 88</t>
+  </si>
+  <si>
+    <t>mbr002</t>
+  </si>
+  <si>
+    <t>Dian Sastro</t>
+  </si>
+  <si>
+    <t>Jl.Kemang Timur 80</t>
+  </si>
+  <si>
+    <t>mds003</t>
+  </si>
+  <si>
+    <t>Tara Basro</t>
+  </si>
+  <si>
+    <t>Jl.Darmo 90</t>
+  </si>
+  <si>
+    <t>mtb004</t>
+  </si>
+  <si>
+    <t>Richo Kyle</t>
+  </si>
+  <si>
+    <t>Jl.Dinoyo 88</t>
+  </si>
+  <si>
+    <t>mrk005</t>
+  </si>
+  <si>
     <t>POINT</t>
   </si>
   <si>
-    <t>K0001</t>
-  </si>
-  <si>
-    <t>K0002</t>
-  </si>
-  <si>
-    <t>K0003</t>
-  </si>
-  <si>
-    <t>K0004</t>
-  </si>
-  <si>
-    <t>K0005</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Kamera</t>
-  </si>
-  <si>
-    <t>Handphone</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Powerbank</t>
-  </si>
-  <si>
-    <t>M0001</t>
-  </si>
-  <si>
-    <t>M0002</t>
-  </si>
-  <si>
-    <t>M0003</t>
-  </si>
-  <si>
-    <t>M0004</t>
-  </si>
-  <si>
-    <t>M0005</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>Canon</t>
-  </si>
-  <si>
-    <t>Nikon</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>B0001</t>
-  </si>
-  <si>
-    <t>B0002</t>
-  </si>
-  <si>
-    <t>B0003</t>
-  </si>
-  <si>
-    <t>B0004</t>
-  </si>
-  <si>
-    <t>B0005</t>
-  </si>
-  <si>
-    <t>XiaoMi</t>
-  </si>
-  <si>
-    <t>Asus ROG</t>
-  </si>
-  <si>
-    <t>Canon 500D</t>
-  </si>
-  <si>
-    <t>Nikon 1300</t>
-  </si>
-  <si>
-    <t>Dell 14041</t>
-  </si>
-  <si>
-    <t>PB-007</t>
-  </si>
-  <si>
-    <t>P0001</t>
-  </si>
-  <si>
-    <t>P0002</t>
-  </si>
-  <si>
-    <t>P0003</t>
-  </si>
-  <si>
-    <t>P0004</t>
-  </si>
-  <si>
-    <t>P0005</t>
-  </si>
-  <si>
-    <t>Susi Susanti</t>
-  </si>
-  <si>
-    <t>Tom Mitchell</t>
-  </si>
-  <si>
-    <t>Martin Suryajaya</t>
-  </si>
-  <si>
-    <t>Rose Maxwell</t>
-  </si>
-  <si>
-    <t>JK_PEGAWAI</t>
-  </si>
-  <si>
-    <t>Pevita Pearce</t>
-  </si>
-  <si>
-    <t>S0001</t>
-  </si>
-  <si>
-    <t>S0002</t>
-  </si>
-  <si>
-    <t>S0003</t>
-  </si>
-  <si>
-    <t>S0004</t>
-  </si>
-  <si>
-    <t>S0005</t>
-  </si>
-  <si>
-    <t>PT.Makmur Jaya</t>
-  </si>
-  <si>
-    <t>PT.Computindo Golden</t>
-  </si>
-  <si>
-    <t>PT.Sentosa Abadi</t>
-  </si>
-  <si>
-    <t>PT.Elektronika Jaya</t>
-  </si>
-  <si>
-    <t>PT.Sumber Abadi</t>
-  </si>
-  <si>
-    <t>Jl.Ngagel Jaya 786</t>
-  </si>
-  <si>
-    <t>Jl.Rajawali 100</t>
-  </si>
-  <si>
-    <t>Jl.Kalidami 20</t>
-  </si>
-  <si>
-    <t>Jl.Basuki Rahmat 35</t>
-  </si>
-  <si>
-    <t>Jl.Pandegiling 40</t>
-  </si>
-  <si>
-    <t>Jl.Rajawali 800</t>
-  </si>
-  <si>
-    <t>Jl.Singaperbangsa 80</t>
-  </si>
-  <si>
-    <t>Jl.MT Haryono 700</t>
-  </si>
-  <si>
-    <t>Jl.Sukolilo 88</t>
-  </si>
-  <si>
-    <t>Jl.Pasteur 55</t>
-  </si>
-  <si>
-    <t>pss88001</t>
-  </si>
-  <si>
-    <t>ptm96002</t>
-  </si>
-  <si>
-    <t>ppp87005</t>
-  </si>
-  <si>
-    <t>prm90004</t>
-  </si>
-  <si>
-    <t>pms80003</t>
-  </si>
-  <si>
-    <t>Roy Kiyoshi</t>
-  </si>
-  <si>
-    <t>Bob Martin</t>
-  </si>
-  <si>
-    <t>Dian Sastro</t>
-  </si>
-  <si>
-    <t>Tara Basro</t>
-  </si>
-  <si>
-    <t>Richo Kyle</t>
-  </si>
-  <si>
-    <t>Jl.Senayan Timur 90</t>
-  </si>
-  <si>
-    <t>Jl.Meruya Barat 88</t>
-  </si>
-  <si>
-    <t>Jl.Kemang Timur 80</t>
-  </si>
-  <si>
-    <t>Jl.Darmo 90</t>
-  </si>
-  <si>
-    <t>Jl.Dinoyo 88</t>
-  </si>
-  <si>
-    <t>mrk001</t>
-  </si>
-  <si>
-    <t>mbr002</t>
-  </si>
-  <si>
-    <t>mds003</t>
-  </si>
-  <si>
-    <t>mtb004</t>
-  </si>
-  <si>
-    <t>mrk005</t>
-  </si>
-  <si>
-    <t>JK_MEMBER</t>
-  </si>
-  <si>
-    <t>13/3/2018  10:30:44</t>
-  </si>
-  <si>
-    <t>14/3/2018  13:30:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/3/2018  10:35:44 </t>
-  </si>
-  <si>
-    <t>14/3/2018  10:30:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/3/2018  14:30:44 </t>
-  </si>
-  <si>
-    <t>HARGA_ASLI_BARANG</t>
-  </si>
-  <si>
-    <t>HARGA_JUAL_BARANG</t>
-  </si>
-  <si>
-    <t>HB13032018001</t>
-  </si>
-  <si>
-    <t>HB13032018002</t>
-  </si>
-  <si>
-    <t>HB14032018001</t>
-  </si>
-  <si>
-    <t>HB14032018002</t>
-  </si>
-  <si>
-    <t>HB15032018001</t>
-  </si>
-  <si>
-    <t>20/3/2018  10:30:44</t>
-  </si>
-  <si>
-    <t>HJ20032018001</t>
-  </si>
-  <si>
-    <t>HJ21032018001</t>
-  </si>
-  <si>
-    <t>HJ21032018002</t>
-  </si>
-  <si>
-    <t>A13032018001</t>
-  </si>
-  <si>
-    <t>A13032018002</t>
-  </si>
-  <si>
-    <t>A14032018001</t>
-  </si>
-  <si>
-    <t>A14032018002</t>
-  </si>
-  <si>
-    <t>A15032018001</t>
-  </si>
-  <si>
-    <t>A15032018002</t>
-  </si>
-  <si>
-    <t>13/3/2018  07:30:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/3/2018  07:35:44 </t>
-  </si>
-  <si>
-    <t>14/3/2018  07:30:50</t>
-  </si>
-  <si>
-    <t>14/3/2018  07:30:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/3/2018  07:31:44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/3/2018  07:33:44 </t>
-  </si>
-  <si>
-    <t>13/3/2018  16:30:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/3/2018  16:35:44 </t>
-  </si>
-  <si>
-    <t>14/3/2018  17:00:50</t>
-  </si>
-  <si>
-    <t>14/3/2018  17:30:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/3/2018  16:55:44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/3/2018  16:35:44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/3/2018  14:30:44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/3/2018  10:35:44 </t>
-  </si>
-  <si>
-    <t>21/3/2018  13:30:44</t>
-  </si>
-  <si>
-    <t>21/3/2018  11:40:50</t>
-  </si>
-  <si>
-    <t>A20032018001</t>
-  </si>
-  <si>
-    <t>A21032018001</t>
-  </si>
-  <si>
-    <t>A20032018002</t>
-  </si>
-  <si>
-    <t>A20032018003</t>
-  </si>
-  <si>
-    <t>A21032018002</t>
-  </si>
-  <si>
-    <t>A21032018003</t>
-  </si>
-  <si>
-    <t>20/3/2018  07:30:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/3/2018  07:35:44 </t>
-  </si>
-  <si>
-    <t>20/3/2018  16:30:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/3/2018  16:35:44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/3/2018  07:37:44 </t>
-  </si>
-  <si>
-    <t>21/3/2018  07:30:44</t>
-  </si>
-  <si>
-    <t>21/3/2018  07:30:45</t>
-  </si>
-  <si>
-    <t>21/3/2018  07:30:46</t>
-  </si>
-  <si>
-    <t>21/3/2018  16:30:44</t>
-  </si>
-  <si>
-    <t>21/3/2018  16:30:45</t>
-  </si>
-  <si>
-    <t>21/3/2018  16:30:46</t>
-  </si>
-  <si>
-    <t>HJ21032018003</t>
-  </si>
-  <si>
-    <t>HJ20032018002</t>
-  </si>
-  <si>
-    <t>FOTO_MEMBER</t>
-  </si>
-  <si>
-    <t>FOTO_PEGAWAI</t>
+    <t>APPLE IPHONE 6.png</t>
+  </si>
+  <si>
+    <t>Nokia 105 (2017).jpg</t>
+  </si>
+  <si>
+    <t>OPPO F7.jpg</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy J2 Prime.jpg</t>
+  </si>
+  <si>
+    <t>Sharp R1.png</t>
+  </si>
+  <si>
+    <t>Acer Swift 3.png</t>
+  </si>
+  <si>
+    <t>Asus x550vx.png</t>
+  </si>
+  <si>
+    <t>ASUS ZenBook Flip.png</t>
+  </si>
+  <si>
+    <t>HP Laptop 14.png</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad L420.png</t>
+  </si>
+  <si>
+    <t>Blackvue Cloud Dash Cam.jpg</t>
+  </si>
+  <si>
+    <t>Canon EOS 6D Mark II.png</t>
+  </si>
+  <si>
+    <t>Fuji Digital Camera GFX 50S BO.jpg</t>
+  </si>
+  <si>
+    <t>GoPro HERO6.png</t>
+  </si>
+  <si>
+    <t>Sony Alpha A5000.jpg</t>
+  </si>
+  <si>
+    <t>Apple iPad Air 3.jpg</t>
+  </si>
+  <si>
+    <t>iPad mini 4.jpg</t>
+  </si>
+  <si>
+    <t>Microsoft New Surface Pro 5.jpg</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab A.jpg</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S2.png</t>
+  </si>
+  <si>
+    <t>Hippo Bronz X.jpg</t>
+  </si>
+  <si>
+    <t>HIPPO ILO F2.jpg</t>
+  </si>
+  <si>
+    <t>Hippo iLo P1.jpg</t>
+  </si>
+  <si>
+    <t>Robot RT7200.jpg</t>
+  </si>
+  <si>
+    <t>Xiaomi Powerbank 2.png</t>
+  </si>
+  <si>
+    <t>Asus ROG G701</t>
+  </si>
+  <si>
+    <t>asusrogg701.jpg</t>
+  </si>
+  <si>
+    <t>CanonEOS500D.jpg</t>
+  </si>
+  <si>
+    <t>Canon EOS 500D</t>
+  </si>
+  <si>
+    <t>Nikon D3300</t>
+  </si>
+  <si>
+    <t>NikonD3300.jpg</t>
+  </si>
+  <si>
+    <t>Dell Inspiron1570007567.jpg</t>
+  </si>
+  <si>
+    <t>XiaoMi 10000mAh</t>
+  </si>
+  <si>
+    <t>xiaomi10000.jpg</t>
+  </si>
+  <si>
+    <t>BARANG</t>
   </si>
 </sst>
 </file>
@@ -579,10 +918,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -605,11 +944,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +1263,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC57E8F4-1BEB-4C63-B3FF-643F79006DB7}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -938,195 +1280,869 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2">
-        <v>20000000</v>
-      </c>
-      <c r="F2">
-        <f>(0.1*E2)+E2</f>
-        <v>22000000</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="E3">
-        <v>6000000</v>
+        <v>20000000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">(0.1*E3)+E3</f>
-        <v>6600000</v>
+        <f>(0.1*E3)+E3</f>
+        <v>22000000</v>
       </c>
       <c r="G3">
         <v>9</v>
       </c>
+      <c r="I3" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="E4">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>5500000</v>
+        <f>(0.1*E4)+E4</f>
+        <v>6600000</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="E5">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>7700000</v>
+        <f>(0.1*E5)+E5</f>
+        <v>5500000</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>7000000</v>
+      </c>
+      <c r="F6">
+        <f>(0.1*E6)+E6</f>
+        <v>7700000</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7">
+        <v>200000</v>
+      </c>
+      <c r="F7">
+        <f>(0.1*E7)+E7</f>
+        <v>220000</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3000000</v>
+      </c>
+      <c r="F8">
+        <v>3200000</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>400000</v>
+      </c>
+      <c r="F9">
+        <v>500000</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>4000000</v>
+      </c>
+      <c r="F10">
+        <v>5000000</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>2000000</v>
+      </c>
+      <c r="F11">
+        <v>2200000</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>4000000</v>
+      </c>
+      <c r="F12">
+        <v>4500000</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>5000000</v>
+      </c>
+      <c r="F13">
+        <v>6000000</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>4000000</v>
+      </c>
+      <c r="F14">
+        <v>5000000</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>8000000</v>
+      </c>
+      <c r="F15">
+        <v>9000000</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <v>1000000</v>
+      </c>
+      <c r="F18">
+        <v>1500000</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>5000000</v>
+      </c>
+      <c r="F19">
+        <v>6000000</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <v>90000000</v>
+      </c>
+      <c r="F20">
+        <v>95000000</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>5000000</v>
+      </c>
+      <c r="F21">
+        <v>6000000</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="E6">
-        <v>200000</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>220000</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22">
+        <v>3000000</v>
+      </c>
+      <c r="F22">
+        <v>4000000</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>6000000</v>
+      </c>
+      <c r="F23">
+        <v>7000000</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24">
+        <v>5000000</v>
+      </c>
+      <c r="F24">
+        <v>6000000</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>10000000</v>
+      </c>
+      <c r="F25">
+        <v>12000000</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <v>4000000</v>
+      </c>
+      <c r="F26">
+        <v>5000000</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27">
+        <v>5000000</v>
+      </c>
+      <c r="F27">
+        <v>6000000</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28">
+        <v>500000</v>
+      </c>
+      <c r="F28">
+        <v>600000</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29">
+        <v>600000</v>
+      </c>
+      <c r="F29">
+        <v>700000</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>700000</v>
+      </c>
+      <c r="F30">
+        <v>800000</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31">
+        <v>800000</v>
+      </c>
+      <c r="F31">
+        <v>900000</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32">
+        <v>900000</v>
+      </c>
+      <c r="F32">
+        <v>1000000</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F799B5E1-1D3B-4EC9-93EF-94872C7AB867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>220</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C2">
         <v>200000000</v>
@@ -1134,10 +2150,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="C3">
         <v>30000000</v>
@@ -1145,10 +2161,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="C4">
         <v>25000000</v>
@@ -1156,10 +2172,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="C5">
         <v>70000000</v>
@@ -1167,26 +2183,26 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="C6">
         <v>4000000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA0A7-8DE6-410F-B9CA-DAEB800F93AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1195,145 +2211,147 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>118</v>
+        <v>235</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="1">
+        <v>240</v>
+      </c>
+      <c r="C2" s="2">
         <v>32791</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1">
+        <v>243</v>
+      </c>
+      <c r="C3" s="2">
         <v>24027</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="1">
+        <v>246</v>
+      </c>
+      <c r="C4" s="2">
         <v>32268</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="1">
+        <v>249</v>
+      </c>
+      <c r="C5" s="2">
         <v>32966</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="1">
+        <v>252</v>
+      </c>
+      <c r="C6" s="2">
         <v>32571</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A05125-5038-40D1-94C4-8844F1E2CA41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1341,25 +2359,26 @@
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>220</v>
@@ -1367,10 +2386,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>66</v>
@@ -1378,10 +2397,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>110</v>
@@ -1389,10 +2408,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>77</v>
@@ -1400,32 +2419,34 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>6.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B85303A-5B67-42F7-9718-02D7AFCEF529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1433,65 +2454,68 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9858B6-89C3-4BF0-A42D-23682142FE19}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,59 +2523,196 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F521CB7-A8B1-452F-8A53-28AA5667C0BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1564,52 +2725,53 @@
     <col min="6" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="1">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2">
         <v>32428</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="F2">
         <v>4567889</v>
@@ -1618,24 +2780,24 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2">
         <v>35314</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F3">
         <v>9876662</v>
@@ -1644,24 +2806,24 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1">
+        <v>137</v>
+      </c>
+      <c r="C4" s="2">
         <v>29291</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F4">
         <v>2766563</v>
@@ -1670,24 +2832,24 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="1">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2">
         <v>32998</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="F5">
         <v>2344443</v>
@@ -1696,24 +2858,24 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2">
         <v>31870</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>4532343</v>
@@ -1722,19 +2884,20 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56429F43-3919-41A6-A4DC-F9C9B0DC54A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1744,200 +2907,202 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC5F69D-3516-43BB-8DA7-3383CD9848C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1947,31 +3112,32 @@
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="D2">
         <v>3687651</v>
@@ -1979,13 +3145,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="D3">
         <v>7265498</v>
@@ -1993,13 +3159,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="D4">
         <v>2345553</v>
@@ -2007,13 +3173,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>1234444</v>
@@ -2021,28 +3187,29 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="D6">
         <v>5678888</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C776BE1A-B440-467B-866B-F7614C983A9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2051,6 +3218,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,21 +3226,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2083,10 +3251,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2097,10 +3265,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2111,10 +3279,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2125,10 +3293,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2138,15 +3306,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C271C3-8020-4872-B314-F32DA6DEF8DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2156,31 +3325,32 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="D2">
         <v>22000000</v>
@@ -2188,13 +3358,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="D3">
         <v>6600000</v>
@@ -2202,13 +3372,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="D4">
         <v>11000000</v>
@@ -2216,13 +3386,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="D5">
         <v>7700000</v>
@@ -2230,28 +3400,29 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="D6">
         <v>660000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F09AA1-1B8F-4F92-A092-8B20FC2BA9FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2261,35 +3432,36 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2300,13 +3472,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -2317,13 +3489,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -2334,13 +3506,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2351,13 +3523,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -2367,6 +3539,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>